--- a/Математика готовность.xlsx
+++ b/Математика готовность.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\math_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D604BFC-AE7C-4FE6-B591-BDCF630D0BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB16E54-F1C5-4875-8276-F0FC123F5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,74 +653,74 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I974"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1057,15 +1057,15 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25"/>
+      <c r="F3" s="41"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1075,7 @@
       <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1099,413 +1099,413 @@
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="40">
+      <c r="B6" s="32">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="35" t="s">
+      <c r="E6" s="25"/>
+      <c r="F6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32">
+      <c r="G6" s="26"/>
+      <c r="H6" s="27">
         <v>1</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="40">
+      <c r="B7" s="32">
         <v>2</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="30" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="25"/>
+      <c r="F7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="32">
+      <c r="G7" s="26"/>
+      <c r="H7" s="27">
         <v>1</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="40">
+      <c r="B8" s="32">
         <v>3</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32">
+      <c r="G8" s="26"/>
+      <c r="H8" s="27">
         <v>1</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="40">
+      <c r="B9" s="32">
         <v>4</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="31" t="s">
+      <c r="E9" s="28"/>
+      <c r="F9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32">
+      <c r="G9" s="26"/>
+      <c r="H9" s="27">
         <v>1</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="135">
       <c r="A10" s="5"/>
-      <c r="B10" s="40">
+      <c r="B10" s="32">
         <v>5</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32">
+      <c r="F10" s="29"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27">
         <v>0.5</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="40">
+      <c r="B11" s="32">
         <v>6</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32">
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27">
         <v>1</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="40">
+      <c r="B12" s="32">
         <v>7</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="32">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27">
         <v>1</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="40">
+      <c r="B13" s="32">
         <v>8</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27">
         <v>1</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="40">
+      <c r="B14" s="32">
         <v>9</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="39"/>
+      <c r="D14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27">
         <v>1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="40">
+      <c r="B15" s="32">
         <v>10</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27">
         <v>1</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="40">
+      <c r="B16" s="32">
         <v>11</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32">
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27">
         <v>1</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="5"/>
-      <c r="B17" s="40">
+      <c r="B17" s="32">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="39" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="27">
         <v>1</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="40">
+      <c r="B19" s="32">
         <v>13</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32">
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27">
         <v>1</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="40">
+      <c r="B20" s="32">
         <v>14</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="37"/>
+      <c r="D20" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30">
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="45">
       <c r="A21" s="5"/>
-      <c r="B21" s="40">
+      <c r="B21" s="32">
         <v>15</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="32">
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27">
         <v>1</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="5"/>
-      <c r="B22" s="40">
+      <c r="B22" s="32">
         <v>16</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="37"/>
+      <c r="D22" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32">
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27">
         <v>0</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="40">
+      <c r="B23" s="32">
         <v>17</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="30" t="s">
+      <c r="C23" s="37"/>
+      <c r="D23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32">
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27">
         <v>0</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="40">
+      <c r="B24" s="32">
         <v>18</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="32">
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27">
         <v>0</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="25">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="11"/>
-      <c r="B25" s="41">
+      <c r="B25" s="33">
         <v>19</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32">
+      <c r="F25" s="28"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27">
         <v>0</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="25">
         <v>4</v>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
         <v>36</v>
       </c>
       <c r="H28" s="15">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
@@ -1558,31 +1558,31 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="11"/>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
     </row>
     <row r="33" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
     </row>
     <row r="37" spans="3:5" ht="15.75" customHeight="1"/>
     <row r="38" spans="3:5" ht="15.75" customHeight="1"/>
@@ -2542,7 +2542,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Математика готовность.xlsx
+++ b/Математика готовность.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\math_EGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB16E54-F1C5-4875-8276-F0FC123F5E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7275F1B3-AFBC-44F4-A657-E5ACD17DA2DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I974"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2541,11 +2541,15 @@
   </sheetPr>
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
